--- a/Income/CBRE_inc.xlsx
+++ b/Income/CBRE_inc.xlsx
@@ -2042,7 +2042,7 @@
         <v>0.0488</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.057</v>
@@ -2169,7 +2169,7 @@
         <v>0.0472</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0524</v>
+        <v>0.0523</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0537</v>
@@ -2290,16 +2290,16 @@
         <v>0.0522</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1022</v>
+        <v>0.0679</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0851</v>
+        <v>0.0512</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0813</v>
+        <v>0.0479</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0734</v>
+        <v>0.0389</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0231</v>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0681</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.069</v>
@@ -3883,7 +3883,7 @@
         <v>0.0693</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.0762</v>
+        <v>0.0792</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.0752</v>
@@ -4004,16 +4004,16 @@
         <v>0.0634</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.1142</v>
+        <v>0.0799</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.0976</v>
+        <v>0.0637</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0935</v>
+        <v>0.06</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0857</v>
+        <v>0.0512</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.0348</v>
